--- a/Sample_information_table.xlsx
+++ b/Sample_information_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jiaoda\xianjiaoda\data_gsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8C380-8B51-43DD-A47C-EBD2923627EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C1ED97-D597-4C6E-9626-5FBBEBD67FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRA030409" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="86">
   <si>
     <t>fat1_1</t>
   </si>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HFD-PD-1 mAb+Met</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NDWT_1</t>
   </si>
   <si>
@@ -305,6 +301,26 @@
   </si>
   <si>
     <t>Cell barcode suffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT+vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pdcd1-/-+vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT+PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pdcd1-/-+PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pdcd1-/-+PA+Met</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -680,16 +696,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +719,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,7 +733,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,7 +747,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +761,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +775,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +789,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +803,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,7 +817,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,7 +831,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -829,7 +845,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,7 +859,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,7 +873,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,7 +887,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +901,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +915,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,7 +929,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,7 +943,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,7 +957,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,7 +971,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,7 +985,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,7 +999,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +1013,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1027,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1041,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1039,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B38AE-9A38-420E-836E-C5684B0A7B25}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,16 +1068,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1069,13 +1085,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1083,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1097,13 +1113,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1111,13 +1127,13 @@
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1125,13 +1141,13 @@
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1139,13 +1155,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1153,13 +1169,13 @@
         <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1167,13 +1183,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1181,13 +1197,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1195,13 +1211,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1209,13 +1225,13 @@
         <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1223,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1237,13 +1253,13 @@
         <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1251,13 +1267,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1265,13 +1281,13 @@
         <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
@@ -1327,16 +1343,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1344,13 +1360,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,30 +1374,30 @@
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1395,7 +1411,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1412,7 +1428,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -1429,7 +1445,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -1446,7 +1462,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -1463,7 +1479,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4">
         <v>5</v>
@@ -1480,7 +1496,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4">
         <v>6</v>
@@ -1497,7 +1513,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4">
         <v>10</v>
@@ -1514,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4">
         <v>11</v>
@@ -1531,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4">
         <v>12</v>
@@ -1548,7 +1564,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4">
         <v>7</v>
@@ -1565,7 +1581,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="4">
         <v>8</v>
@@ -1582,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4">
         <v>9</v>
@@ -1599,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1616,7 +1632,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
@@ -1633,7 +1649,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4">
         <v>3</v>
@@ -1650,7 +1666,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="4">
         <v>4</v>
@@ -1667,7 +1683,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4">
         <v>5</v>
@@ -1684,7 +1700,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="4">
         <v>6</v>
@@ -1701,7 +1717,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="4">
         <v>10</v>
@@ -1718,7 +1734,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4">
         <v>11</v>
@@ -1735,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4">
         <v>12</v>
@@ -1752,7 +1768,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="4">
         <v>7</v>
@@ -1769,7 +1785,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="4">
         <v>8</v>
@@ -1786,7 +1802,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="4">
         <v>9</v>
@@ -1803,7 +1819,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,254 +1833,254 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
